--- a/Grados_UGR_Centros.xlsx
+++ b/Grados_UGR_Centros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\SyllaBUG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB69F716-1239-481D-8754-7875994E1054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820A49B6-61D4-449A-957E-C4E936BF0B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="253">
   <si>
     <t>Grado</t>
   </si>
@@ -706,27 +706,6 @@
     <t>Biblioteca</t>
   </si>
   <si>
-    <t>BFA</t>
-  </si>
-  <si>
-    <t>BDE</t>
-  </si>
-  <si>
-    <t>BCPS</t>
-  </si>
-  <si>
-    <t>BBA</t>
-  </si>
-  <si>
-    <t>BCM</t>
-  </si>
-  <si>
-    <t>BDE+BEE</t>
-  </si>
-  <si>
-    <t>BDE+BCPS</t>
-  </si>
-  <si>
     <t>B. Económicas y Empres.</t>
   </si>
   <si>
@@ -761,6 +740,45 @@
   </si>
   <si>
     <t>B. Informática y Telecom.</t>
+  </si>
+  <si>
+    <t>B. Politécnica</t>
+  </si>
+  <si>
+    <t>B. Políticas y Sociolog.</t>
+  </si>
+  <si>
+    <t>B. Educación</t>
+  </si>
+  <si>
+    <t>B. Bellas Artes</t>
+  </si>
+  <si>
+    <t>B. Derecho</t>
+  </si>
+  <si>
+    <t>B. Deporte</t>
+  </si>
+  <si>
+    <t>B. Derecho + B. Económicas y Empres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B. Políticas y Sociolog. + </t>
+  </si>
+  <si>
+    <t>B. Derecho + B. Políticas y Sociolog.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B. Económicas y Empres. + </t>
+  </si>
+  <si>
+    <t>B. Ciencias + B. Informática y Telecom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B. Informática y Telecom. + B. Económicas y Empres.</t>
+  </si>
+  <si>
+    <t>B. Filosofía y Letras A + B. Eduación</t>
   </si>
 </sst>
 </file>
@@ -1136,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="134" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1167,7 +1185,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1181,7 +1199,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1194,6 +1212,9 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
+      <c r="D4" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1206,7 +1227,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1220,7 +1241,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1233,6 +1254,9 @@
       <c r="C7" t="s">
         <v>17</v>
       </c>
+      <c r="D7" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1245,7 +1269,7 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1255,8 +1279,11 @@
       <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1266,8 +1293,11 @@
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1280,6 +1310,9 @@
       <c r="C11" t="s">
         <v>28</v>
       </c>
+      <c r="D11" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1291,6 +1324,9 @@
       <c r="C12" t="s">
         <v>31</v>
       </c>
+      <c r="D12" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1302,6 +1338,9 @@
       <c r="C13" t="s">
         <v>34</v>
       </c>
+      <c r="D13" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1313,6 +1352,9 @@
       <c r="C14" t="s">
         <v>36</v>
       </c>
+      <c r="D14" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1324,6 +1366,9 @@
       <c r="C15" t="s">
         <v>39</v>
       </c>
+      <c r="D15" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1335,6 +1380,9 @@
       <c r="C16" t="s">
         <v>41</v>
       </c>
+      <c r="D16" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -1346,6 +1394,9 @@
       <c r="C17" t="s">
         <v>44</v>
       </c>
+      <c r="D17" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -1357,6 +1408,9 @@
       <c r="C18" t="s">
         <v>46</v>
       </c>
+      <c r="D18" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -1369,7 +1423,7 @@
         <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1383,7 +1437,7 @@
         <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1397,7 +1451,7 @@
         <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1411,7 +1465,7 @@
         <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1425,7 +1479,7 @@
         <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1439,7 +1493,7 @@
         <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1453,7 +1507,7 @@
         <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1467,7 +1521,7 @@
         <v>64</v>
       </c>
       <c r="D26" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1481,7 +1535,7 @@
         <v>66</v>
       </c>
       <c r="D27" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1495,7 +1549,7 @@
         <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1509,7 +1563,7 @@
         <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1523,7 +1577,7 @@
         <v>72</v>
       </c>
       <c r="D30" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1537,7 +1591,7 @@
         <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1551,7 +1605,7 @@
         <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1565,7 +1619,7 @@
         <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1579,7 +1633,7 @@
         <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1593,7 +1647,7 @@
         <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1607,7 +1661,7 @@
         <v>87</v>
       </c>
       <c r="D36" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1621,7 +1675,7 @@
         <v>89</v>
       </c>
       <c r="D37" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1635,7 +1689,7 @@
         <v>91</v>
       </c>
       <c r="D38" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1649,7 +1703,7 @@
         <v>93</v>
       </c>
       <c r="D39" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1673,6 +1727,9 @@
       <c r="C41" t="s">
         <v>98</v>
       </c>
+      <c r="D41" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
@@ -1685,7 +1742,7 @@
         <v>100</v>
       </c>
       <c r="D42" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1710,7 +1767,7 @@
         <v>105</v>
       </c>
       <c r="D44" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1723,6 +1780,9 @@
       <c r="C45" t="s">
         <v>107</v>
       </c>
+      <c r="D45" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
@@ -1734,6 +1794,9 @@
       <c r="C46" t="s">
         <v>109</v>
       </c>
+      <c r="D46" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
@@ -1746,7 +1809,7 @@
         <v>111</v>
       </c>
       <c r="D47" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1771,7 +1834,7 @@
         <v>115</v>
       </c>
       <c r="D49" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1784,6 +1847,9 @@
       <c r="C50" t="s">
         <v>117</v>
       </c>
+      <c r="D50" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
@@ -1796,7 +1862,7 @@
         <v>119</v>
       </c>
       <c r="D51" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1810,7 +1876,7 @@
         <v>121</v>
       </c>
       <c r="D52" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1823,6 +1889,9 @@
       <c r="C53" t="s">
         <v>124</v>
       </c>
+      <c r="D53" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
@@ -1835,7 +1904,7 @@
         <v>127</v>
       </c>
       <c r="D54" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1849,7 +1918,7 @@
         <v>130</v>
       </c>
       <c r="D55" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1862,6 +1931,9 @@
       <c r="C56" t="s">
         <v>132</v>
       </c>
+      <c r="D56" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
@@ -1873,6 +1945,9 @@
       <c r="C57" t="s">
         <v>134</v>
       </c>
+      <c r="D57" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
@@ -1884,6 +1959,9 @@
       <c r="C58" t="s">
         <v>136</v>
       </c>
+      <c r="D58" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
@@ -1906,6 +1984,9 @@
       <c r="C60" t="s">
         <v>141</v>
       </c>
+      <c r="D60" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
@@ -1918,7 +1999,7 @@
         <v>143</v>
       </c>
       <c r="D61" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1931,6 +2012,9 @@
       <c r="C62" t="s">
         <v>145</v>
       </c>
+      <c r="D62" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
@@ -1942,6 +2026,9 @@
       <c r="C63" t="s">
         <v>147</v>
       </c>
+      <c r="D63" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
@@ -1953,6 +2040,9 @@
       <c r="C64" t="s">
         <v>149</v>
       </c>
+      <c r="D64" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
@@ -1964,6 +2054,9 @@
       <c r="C65" t="s">
         <v>151</v>
       </c>
+      <c r="D65" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
@@ -1975,6 +2068,9 @@
       <c r="C66" t="s">
         <v>153</v>
       </c>
+      <c r="D66" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
@@ -1987,7 +2083,7 @@
         <v>155</v>
       </c>
       <c r="D67" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -2000,6 +2096,9 @@
       <c r="C68" t="s">
         <v>157</v>
       </c>
+      <c r="D68" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
@@ -2011,6 +2110,9 @@
       <c r="C69" t="s">
         <v>159</v>
       </c>
+      <c r="D69" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
@@ -2022,6 +2124,9 @@
       <c r="C70" t="s">
         <v>161</v>
       </c>
+      <c r="D70" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
@@ -2033,6 +2138,9 @@
       <c r="C71" t="s">
         <v>163</v>
       </c>
+      <c r="D71" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
@@ -2044,6 +2152,9 @@
       <c r="C72" t="s">
         <v>165</v>
       </c>
+      <c r="D72" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
@@ -2055,6 +2166,9 @@
       <c r="C73" t="s">
         <v>167</v>
       </c>
+      <c r="D73" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
@@ -2067,7 +2181,7 @@
         <v>169</v>
       </c>
       <c r="D74" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -2080,6 +2194,9 @@
       <c r="C75" t="s">
         <v>172</v>
       </c>
+      <c r="D75" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
@@ -2091,6 +2208,9 @@
       <c r="C76" t="s">
         <v>174</v>
       </c>
+      <c r="D76" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
@@ -2102,6 +2222,9 @@
       <c r="C77" t="s">
         <v>176</v>
       </c>
+      <c r="D77" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
@@ -2114,7 +2237,7 @@
         <v>178</v>
       </c>
       <c r="D78" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2128,7 +2251,7 @@
         <v>180</v>
       </c>
       <c r="D79" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2142,7 +2265,7 @@
         <v>182</v>
       </c>
       <c r="D80" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2156,7 +2279,7 @@
         <v>184</v>
       </c>
       <c r="D81" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2170,7 +2293,7 @@
         <v>186</v>
       </c>
       <c r="D82" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2184,7 +2307,7 @@
         <v>188</v>
       </c>
       <c r="D83" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2198,7 +2321,7 @@
         <v>191</v>
       </c>
       <c r="D84" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2212,7 +2335,7 @@
         <v>193</v>
       </c>
       <c r="D85" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2226,7 +2349,7 @@
         <v>195</v>
       </c>
       <c r="D86" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2240,7 +2363,7 @@
         <v>198</v>
       </c>
       <c r="D87" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2254,7 +2377,7 @@
         <v>200</v>
       </c>
       <c r="D88" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2268,7 +2391,7 @@
         <v>203</v>
       </c>
       <c r="D89" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2281,6 +2404,9 @@
       <c r="C90" t="s">
         <v>205</v>
       </c>
+      <c r="D90" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
@@ -2292,6 +2418,9 @@
       <c r="C91" t="s">
         <v>207</v>
       </c>
+      <c r="D91" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
@@ -2303,6 +2432,9 @@
       <c r="C92" t="s">
         <v>209</v>
       </c>
+      <c r="D92" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
@@ -2326,7 +2458,7 @@
         <v>214</v>
       </c>
       <c r="D94" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2339,6 +2471,9 @@
       <c r="C95" t="s">
         <v>216</v>
       </c>
+      <c r="D95" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
@@ -2350,6 +2485,9 @@
       <c r="C96" t="s">
         <v>218</v>
       </c>
+      <c r="D96" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
@@ -2373,7 +2511,7 @@
         <v>223</v>
       </c>
       <c r="D98" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2387,16 +2525,18 @@
         <v>225</v>
       </c>
       <c r="D99" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C20" r:id="rId1" xr:uid="{8949206C-C373-4757-A0DD-230935D3444E}"/>
     <hyperlink ref="C38" r:id="rId2" xr:uid="{990D16FC-5DDA-42BA-9897-AD855F62ACDF}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{6E498A56-6DD9-4825-A3EE-FEA917E37C16}"/>
+    <hyperlink ref="C10" r:id="rId4" xr:uid="{E39A932F-9A6E-4DE9-8DDB-D8D988FACFAF}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/Grados_UGR_Centros.xlsx
+++ b/Grados_UGR_Centros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\SyllaBUG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820A49B6-61D4-449A-957E-C4E936BF0B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588B4159-26EC-42B5-A9EC-833EED1BBE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="253">
   <si>
     <t>Grado</t>
   </si>
@@ -763,15 +763,9 @@
     <t>B. Derecho + B. Económicas y Empres.</t>
   </si>
   <si>
-    <t xml:space="preserve">B. Políticas y Sociolog. + </t>
-  </si>
-  <si>
     <t>B. Derecho + B. Políticas y Sociolog.</t>
   </si>
   <si>
-    <t xml:space="preserve">B. Económicas y Empres. + </t>
-  </si>
-  <si>
     <t>B. Ciencias + B. Informática y Telecom.</t>
   </si>
   <si>
@@ -779,6 +773,12 @@
   </si>
   <si>
     <t>B. Filosofía y Letras A + B. Eduación</t>
+  </si>
+  <si>
+    <t>B. Económicas y Empres. + B. Politécnica</t>
+  </si>
+  <si>
+    <t>B. Políticas y Sociolog. + B. Colegio Máximo</t>
   </si>
 </sst>
 </file>
@@ -1154,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="134" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="134" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1213,7 +1213,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1241,7 +1241,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1255,7 +1255,7 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1283,7 +1283,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1297,7 +1297,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1339,7 +1339,7 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1353,7 +1353,7 @@
         <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1367,7 +1367,7 @@
         <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1381,7 +1381,7 @@
         <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1715,6 +1715,9 @@
       </c>
       <c r="C40" t="s">
         <v>96</v>
+      </c>
+      <c r="D40" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">

--- a/Grados_UGR_Centros.xlsx
+++ b/Grados_UGR_Centros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\SyllaBUG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588B4159-26EC-42B5-A9EC-833EED1BBE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAB83ED-7738-417E-A28D-8141C311AD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="255">
   <si>
     <t>Grado</t>
   </si>
@@ -779,6 +779,12 @@
   </si>
   <si>
     <t>B. Políticas y Sociolog. + B. Colegio Máximo</t>
+  </si>
+  <si>
+    <t>B. Arquitectura</t>
+  </si>
+  <si>
+    <t>B. S. Jerónimo</t>
   </si>
 </sst>
 </file>
@@ -1154,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="134" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="135" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1976,6 +1982,9 @@
       <c r="C59" t="s">
         <v>139</v>
       </c>
+      <c r="D59" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
@@ -2449,6 +2458,9 @@
       <c r="C93" t="s">
         <v>212</v>
       </c>
+      <c r="D93" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
@@ -2501,6 +2513,9 @@
       </c>
       <c r="C97" t="s">
         <v>221</v>
+      </c>
+      <c r="D97" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">

--- a/Grados_UGR_Centros.xlsx
+++ b/Grados_UGR_Centros.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\SyllaBUG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAB83ED-7738-417E-A28D-8141C311AD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F61E928-A965-406C-AD60-3C9E58BFFCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -733,9 +733,6 @@
     <t>B. PTS</t>
   </si>
   <si>
-    <t>B. Psicología y Letras B</t>
-  </si>
-  <si>
     <t>B. Colegio Máximo</t>
   </si>
   <si>
@@ -769,9 +766,6 @@
     <t>B. Ciencias + B. Informática y Telecom.</t>
   </si>
   <si>
-    <t xml:space="preserve"> B. Informática y Telecom. + B. Económicas y Empres.</t>
-  </si>
-  <si>
     <t>B. Filosofía y Letras A + B. Eduación</t>
   </si>
   <si>
@@ -785,13 +779,19 @@
   </si>
   <si>
     <t>B. S. Jerónimo</t>
+  </si>
+  <si>
+    <t>B. Filosofía y Letras B</t>
+  </si>
+  <si>
+    <t>B. Informática y Telecom. + B. Económicas y Empres.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -808,6 +808,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -849,12 +857,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1158,10 +1167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="135" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1205,7 +1214,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1219,7 +1228,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1233,7 +1242,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1247,7 +1256,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1261,7 +1270,7 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1289,7 +1298,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1303,7 +1312,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1330,7 +1339,7 @@
       <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>235</v>
       </c>
     </row>
@@ -1345,7 +1354,7 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1359,7 +1368,7 @@
         <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1373,7 +1382,7 @@
         <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1387,7 +1396,7 @@
         <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1527,7 +1536,7 @@
         <v>64</v>
       </c>
       <c r="D26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1611,7 +1620,7 @@
         <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1625,7 +1634,7 @@
         <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1639,7 +1648,7 @@
         <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1653,7 +1662,7 @@
         <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1667,7 +1676,7 @@
         <v>87</v>
       </c>
       <c r="D36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1681,7 +1690,7 @@
         <v>89</v>
       </c>
       <c r="D37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1723,7 +1732,7 @@
         <v>96</v>
       </c>
       <c r="D40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1737,7 +1746,7 @@
         <v>98</v>
       </c>
       <c r="D41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1790,7 +1799,7 @@
         <v>107</v>
       </c>
       <c r="D45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1804,7 +1813,7 @@
         <v>109</v>
       </c>
       <c r="D46" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1832,7 +1841,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>114</v>
       </c>
@@ -1846,7 +1855,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>116</v>
       </c>
@@ -1857,10 +1866,10 @@
         <v>117</v>
       </c>
       <c r="D50" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>118</v>
       </c>
@@ -1874,7 +1883,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>120</v>
       </c>
@@ -1888,7 +1897,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>122</v>
       </c>
@@ -1902,7 +1911,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>125</v>
       </c>
@@ -1916,7 +1925,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>128</v>
       </c>
@@ -1930,7 +1939,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>131</v>
       </c>
@@ -1944,7 +1953,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>133</v>
       </c>
@@ -1958,7 +1967,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>135</v>
       </c>
@@ -1972,7 +1981,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>137</v>
       </c>
@@ -1983,10 +1992,11 @@
         <v>139</v>
       </c>
       <c r="D59" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>140</v>
       </c>
@@ -2000,7 +2010,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>142</v>
       </c>
@@ -2014,7 +2024,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>144</v>
       </c>
@@ -2028,7 +2038,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>146</v>
       </c>
@@ -2042,7 +2052,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>148</v>
       </c>
@@ -2053,7 +2063,7 @@
         <v>149</v>
       </c>
       <c r="D64" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -2193,7 +2203,7 @@
         <v>169</v>
       </c>
       <c r="D74" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -2207,7 +2217,7 @@
         <v>172</v>
       </c>
       <c r="D75" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -2221,7 +2231,7 @@
         <v>174</v>
       </c>
       <c r="D76" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -2249,7 +2259,7 @@
         <v>178</v>
       </c>
       <c r="D78" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2291,7 +2301,7 @@
         <v>184</v>
       </c>
       <c r="D81" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2333,7 +2343,7 @@
         <v>191</v>
       </c>
       <c r="D84" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2403,7 +2413,7 @@
         <v>203</v>
       </c>
       <c r="D89" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2417,7 +2427,7 @@
         <v>205</v>
       </c>
       <c r="D90" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2431,7 +2441,7 @@
         <v>207</v>
       </c>
       <c r="D91" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2459,7 +2469,7 @@
         <v>212</v>
       </c>
       <c r="D93" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2487,7 +2497,7 @@
         <v>216</v>
       </c>
       <c r="D95" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2515,7 +2525,7 @@
         <v>221</v>
       </c>
       <c r="D97" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">

--- a/Grados_UGR_Centros.xlsx
+++ b/Grados_UGR_Centros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\SyllaBUG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F61E928-A965-406C-AD60-3C9E58BFFCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F876ED41-629A-4C89-9754-332A510FBAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -766,9 +766,6 @@
     <t>B. Ciencias + B. Informática y Telecom.</t>
   </si>
   <si>
-    <t>B. Filosofía y Letras A + B. Eduación</t>
-  </si>
-  <si>
     <t>B. Económicas y Empres. + B. Politécnica</t>
   </si>
   <si>
@@ -781,10 +778,13 @@
     <t>B. S. Jerónimo</t>
   </si>
   <si>
-    <t>B. Filosofía y Letras B</t>
-  </si>
-  <si>
     <t>B. Informática y Telecom. + B. Económicas y Empres.</t>
+  </si>
+  <si>
+    <t>B. Filosofía y Letras A + B. Educación</t>
+  </si>
+  <si>
+    <t>B. Psicología y Letras B</t>
   </si>
 </sst>
 </file>
@@ -1169,11 +1169,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" customWidth="1"/>
+    <col min="3" max="3" width="46.5546875" customWidth="1"/>
+    <col min="4" max="4" width="53.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1228,7 +1234,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1270,7 +1276,7 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1298,7 +1304,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1312,7 +1318,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1354,7 +1360,7 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1368,7 +1374,7 @@
         <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1382,7 +1388,7 @@
         <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1992,7 +1998,7 @@
         <v>139</v>
       </c>
       <c r="D59" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G59" s="3"/>
     </row>
@@ -2063,7 +2069,7 @@
         <v>149</v>
       </c>
       <c r="D64" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -2343,7 +2349,7 @@
         <v>191</v>
       </c>
       <c r="D84" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2441,7 +2447,7 @@
         <v>207</v>
       </c>
       <c r="D91" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2469,7 +2475,7 @@
         <v>212</v>
       </c>
       <c r="D93" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2525,7 +2531,7 @@
         <v>221</v>
       </c>
       <c r="D97" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">

--- a/Grados_UGR_Centros.xlsx
+++ b/Grados_UGR_Centros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\SyllaBUG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerui\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F876ED41-629A-4C89-9754-332A510FBAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21812C5C-71C9-41E0-B2C5-D970321AC91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7065" yWindow="1125" windowWidth="21600" windowHeight="10215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="258">
   <si>
     <t>Grado</t>
   </si>
@@ -785,6 +785,15 @@
   </si>
   <si>
     <t>B. Psicología y Letras B</t>
+  </si>
+  <si>
+    <t>Grado prueba</t>
+  </si>
+  <si>
+    <t>Facul prueba</t>
+  </si>
+  <si>
+    <t>Biblio</t>
   </si>
 </sst>
 </file>
@@ -1167,21 +1176,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="135" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" customWidth="1"/>
-    <col min="2" max="2" width="33.5546875" customWidth="1"/>
-    <col min="3" max="3" width="46.5546875" customWidth="1"/>
-    <col min="4" max="4" width="53.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="46.5703125" customWidth="1"/>
+    <col min="4" max="4" width="53.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1195,7 +1204,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1209,7 +1218,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1223,7 +1232,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1237,7 +1246,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1251,7 +1260,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1265,7 +1274,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1279,7 +1288,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1293,7 +1302,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1307,7 +1316,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1321,7 +1330,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1335,7 +1344,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1349,7 +1358,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1363,7 +1372,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1377,7 +1386,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1391,7 +1400,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1405,7 +1414,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1419,7 +1428,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -1433,7 +1442,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -1447,7 +1456,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>226</v>
       </c>
@@ -1461,7 +1470,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -1475,7 +1484,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -1489,7 +1498,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -1503,7 +1512,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -1517,7 +1526,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -1531,7 +1540,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -1545,7 +1554,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -1559,7 +1568,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>67</v>
       </c>
@@ -1573,7 +1582,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -1587,7 +1596,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -1601,7 +1610,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -1615,7 +1624,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -1629,7 +1638,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -1643,7 +1652,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -1657,7 +1666,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>83</v>
       </c>
@@ -1671,7 +1680,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>85</v>
       </c>
@@ -1685,7 +1694,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>88</v>
       </c>
@@ -1699,7 +1708,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>90</v>
       </c>
@@ -1713,7 +1722,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>92</v>
       </c>
@@ -1727,7 +1736,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>94</v>
       </c>
@@ -1741,7 +1750,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -1755,7 +1764,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>99</v>
       </c>
@@ -1769,7 +1778,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>101</v>
       </c>
@@ -1780,7 +1789,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -1794,7 +1803,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>106</v>
       </c>
@@ -1808,7 +1817,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>108</v>
       </c>
@@ -1822,7 +1831,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>110</v>
       </c>
@@ -1836,7 +1845,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>112</v>
       </c>
@@ -1847,7 +1856,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>114</v>
       </c>
@@ -1861,7 +1870,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>116</v>
       </c>
@@ -1875,7 +1884,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>118</v>
       </c>
@@ -1889,7 +1898,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>120</v>
       </c>
@@ -1903,7 +1912,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>122</v>
       </c>
@@ -1917,7 +1926,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>125</v>
       </c>
@@ -1931,7 +1940,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>128</v>
       </c>
@@ -1945,7 +1954,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>131</v>
       </c>
@@ -1959,7 +1968,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>133</v>
       </c>
@@ -1973,7 +1982,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>135</v>
       </c>
@@ -1987,7 +1996,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>137</v>
       </c>
@@ -2002,7 +2011,7 @@
       </c>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>140</v>
       </c>
@@ -2016,7 +2025,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>142</v>
       </c>
@@ -2030,7 +2039,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>144</v>
       </c>
@@ -2044,7 +2053,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>146</v>
       </c>
@@ -2058,7 +2067,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>148</v>
       </c>
@@ -2072,7 +2081,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>150</v>
       </c>
@@ -2086,7 +2095,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>152</v>
       </c>
@@ -2100,7 +2109,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>154</v>
       </c>
@@ -2114,7 +2123,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>156</v>
       </c>
@@ -2128,7 +2137,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>158</v>
       </c>
@@ -2142,7 +2151,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>160</v>
       </c>
@@ -2156,7 +2165,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>162</v>
       </c>
@@ -2170,7 +2179,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>164</v>
       </c>
@@ -2184,7 +2193,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>166</v>
       </c>
@@ -2198,7 +2207,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>168</v>
       </c>
@@ -2212,7 +2221,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>170</v>
       </c>
@@ -2226,7 +2235,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>173</v>
       </c>
@@ -2240,7 +2249,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>175</v>
       </c>
@@ -2254,7 +2263,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>177</v>
       </c>
@@ -2268,7 +2277,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>179</v>
       </c>
@@ -2282,7 +2291,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>181</v>
       </c>
@@ -2296,7 +2305,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>183</v>
       </c>
@@ -2310,7 +2319,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>185</v>
       </c>
@@ -2324,7 +2333,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>187</v>
       </c>
@@ -2338,7 +2347,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>189</v>
       </c>
@@ -2352,7 +2361,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>192</v>
       </c>
@@ -2366,7 +2375,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>194</v>
       </c>
@@ -2380,7 +2389,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>196</v>
       </c>
@@ -2394,7 +2403,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>199</v>
       </c>
@@ -2408,7 +2417,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>201</v>
       </c>
@@ -2422,7 +2431,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>204</v>
       </c>
@@ -2436,7 +2445,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>206</v>
       </c>
@@ -2450,7 +2459,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>208</v>
       </c>
@@ -2464,7 +2473,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>210</v>
       </c>
@@ -2478,7 +2487,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>213</v>
       </c>
@@ -2492,7 +2501,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>215</v>
       </c>
@@ -2506,7 +2515,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>217</v>
       </c>
@@ -2520,7 +2529,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>219</v>
       </c>
@@ -2534,7 +2543,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>222</v>
       </c>
@@ -2548,7 +2557,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>224</v>
       </c>
@@ -2560,6 +2569,20 @@
       </c>
       <c r="D99" t="s">
         <v>234</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>255</v>
+      </c>
+      <c r="B100" t="s">
+        <v>256</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2575,6 +2598,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009C9ABE140BCDD145988D8C72956459CE" ma:contentTypeVersion="5" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e9b6c3d70172403da741d408ab9851ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="98f9a3ca-9759-4e22-ba39-b1f3f0aa4cb2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd828151be38c6ee75f416944481dd00" ns3:_="">
     <xsd:import namespace="98f9a3ca-9759-4e22-ba39-b1f3f0aa4cb2"/>
@@ -2724,16 +2756,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49AE0AE7-079D-407E-AA8D-A472643B1E40}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C936A7D-C772-4539-A947-D59E29C45E15}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2749,12 +2780,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49AE0AE7-079D-407E-AA8D-A472643B1E40}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>